--- a/data-2020/8-grade.xlsx
+++ b/data-2020/8-grade.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9415" uniqueCount="3186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9425" uniqueCount="3194">
   <si>
     <t xml:space="preserve">Отметка времени</t>
   </si>
@@ -9579,6 +9579,30 @@
   </si>
   <si>
     <t xml:space="preserve">momunbekovrinat@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinatorics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short multiplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vieta’s formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fractions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed/Time/Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divisibility</t>
   </si>
 </sst>
 </file>
@@ -9633,6 +9657,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -9731,12 +9756,12 @@
       <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="31.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="31.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="17" style="0" width="18.88"/>
   </cols>
   <sheetData>
@@ -84744,15 +84769,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.73"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -84784,6 +84820,38 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>3189</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>3190</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>3187</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>3191</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>3192</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>3193</v>
       </c>
     </row>
   </sheetData>
